--- a/scheduler-input-draf1.xlsx
+++ b/scheduler-input-draf1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,15 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">conflict courses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">session time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+  <si>
+    <t xml:space="preserve">Conflict Courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session Time</t>
   </si>
   <si>
     <t xml:space="preserve">MATH102 / MATH201</t>
@@ -41,6 +41,48 @@
     <t xml:space="preserve">1 hour 15 minutes each</t>
   </si>
   <si>
+    <t xml:space="preserve">CMPS210 / CMPS101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG205 / ART202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour 30 minutes each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST301 / LANG202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS110 / CHEM202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hours each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYC301 / BUSN301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMPS101 / ENG205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH201 / HIST301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART202 / LANG202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS110 / PSYC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSN301 / CMPS210</t>
+  </si>
+  <si>
     <t xml:space="preserve">Course ID</t>
   </si>
   <si>
@@ -78,6 +120,129 @@
   </si>
   <si>
     <t xml:space="preserve">08:00 / 12:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMPS101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday / Wednesday / Friday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 / 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculus I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuesday / Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00 / 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative Writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday / Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00 / 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 / 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:00 / 17:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSYC301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 / 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Chemistry II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Anderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00 / 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHYS110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics for Engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 / 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSN301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00 / 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANG202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish Conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Hernandez</t>
   </si>
 </sst>
 </file>
@@ -92,6 +257,7 @@
       <sz val="10"/>
       <name val="Nimbus Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -151,8 +317,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,39 +347,149 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -224,74 +508,334 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>18</v>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/scheduler-input-draf1.xlsx
+++ b/scheduler-input-draf1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t xml:space="preserve">Conflict Courses</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">Tuesday / Thursday</t>
   </si>
   <si>
-    <t xml:space="preserve">09:00 / 11:00</t>
+    <t xml:space="preserve">08:00 / 17:30</t>
   </si>
   <si>
     <t xml:space="preserve">ENG205</t>
@@ -164,9 +164,6 @@
     <t xml:space="preserve">Monday / Wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00 / 14:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">HIST301</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t xml:space="preserve">Dr. Williams</t>
   </si>
   <si>
-    <t xml:space="preserve">14:00 / 15:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">ART202</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t xml:space="preserve">Prof. Lee</t>
   </si>
   <si>
-    <t xml:space="preserve">16:00 / 17:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">PSYC301</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t xml:space="preserve">Dr. Rodriguez</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00 / 11:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHEM202</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t xml:space="preserve">Prof. Anderson</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00 / 15:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PHYS110</t>
   </si>
   <si>
@@ -224,18 +209,12 @@
     <t xml:space="preserve">Dr. Thompson</t>
   </si>
   <si>
-    <t xml:space="preserve">14:00 / 16:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUSN301</t>
   </si>
   <si>
     <t xml:space="preserve">Marketing Strategies</t>
   </si>
   <si>
-    <t xml:space="preserve">09:00 / 10:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">LANG202</t>
   </si>
   <si>
@@ -243,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prof. Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday</t>
   </si>
 </sst>
 </file>
@@ -252,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Nimbus Sans"/>
@@ -273,6 +255,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Nimbus Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +304,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,6 +314,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,7 +341,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,7 +502,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E39" activeCellId="0" sqref="E39"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2</v>
@@ -589,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>3</v>
@@ -615,7 +606,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>4</v>
@@ -652,68 +643,68 @@
       <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>47</v>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>3</v>
@@ -725,73 +716,73 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>59</v>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>63</v>
+      <c r="H9" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
+      <c r="H10" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>3</v>
@@ -808,16 +799,16 @@
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>70</v>
+      <c r="H11" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2</v>
@@ -829,13 +820,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
